--- a/SchedulingData/dynamic15/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,268 +462,268 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.6</v>
+        <v>47.78</v>
       </c>
       <c r="E2" t="n">
-        <v>27.14</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>97.7</v>
+        <v>74.44</v>
       </c>
       <c r="E3" t="n">
-        <v>25.06</v>
+        <v>26.696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.44</v>
+        <v>57.12</v>
       </c>
       <c r="E4" t="n">
-        <v>26.696</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>57.12</v>
       </c>
       <c r="D5" t="n">
-        <v>89.3</v>
+        <v>104.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25.2</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>37.1</v>
+        <v>44.3</v>
       </c>
       <c r="E6" t="n">
-        <v>27.48</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.44</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>126.26</v>
+        <v>56.2</v>
       </c>
       <c r="E7" t="n">
-        <v>23.144</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>89.3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>140.64</v>
+        <v>79.16</v>
       </c>
       <c r="E8" t="n">
-        <v>21.196</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>56.2</v>
       </c>
       <c r="D9" t="n">
-        <v>68.23999999999999</v>
+        <v>132.42</v>
       </c>
       <c r="E9" t="n">
-        <v>26.876</v>
+        <v>21.528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.23999999999999</v>
+        <v>74.44</v>
       </c>
       <c r="D10" t="n">
-        <v>136.1</v>
+        <v>140.44</v>
       </c>
       <c r="E10" t="n">
-        <v>23.18</v>
+        <v>21.716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>37.1</v>
+        <v>132.42</v>
       </c>
       <c r="D11" t="n">
-        <v>106.7</v>
+        <v>185.58</v>
       </c>
       <c r="E11" t="n">
-        <v>24.1</v>
+        <v>17.832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>136.1</v>
+        <v>44.3</v>
       </c>
       <c r="D12" t="n">
-        <v>196</v>
+        <v>119.5</v>
       </c>
       <c r="E12" t="n">
-        <v>19.82</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>140.64</v>
+        <v>140.44</v>
       </c>
       <c r="D13" t="n">
-        <v>187.82</v>
+        <v>181.9</v>
       </c>
       <c r="E13" t="n">
-        <v>17.608</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>187.82</v>
+        <v>119.5</v>
       </c>
       <c r="D14" t="n">
-        <v>277.92</v>
+        <v>170.56</v>
       </c>
       <c r="E14" t="n">
-        <v>12.688</v>
+        <v>17.864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>170.56</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8</v>
+        <v>221.68</v>
       </c>
       <c r="E15" t="n">
-        <v>26.62</v>
+        <v>14.872</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>277.92</v>
+        <v>47.78</v>
       </c>
       <c r="D16" t="n">
-        <v>335.1</v>
+        <v>105.68</v>
       </c>
       <c r="E16" t="n">
-        <v>9.1</v>
+        <v>22.752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>97.7</v>
+        <v>79.16</v>
       </c>
       <c r="D17" t="n">
-        <v>141.36</v>
+        <v>142.26</v>
       </c>
       <c r="E17" t="n">
-        <v>22.324</v>
+        <v>22.064</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>335.1</v>
+        <v>221.68</v>
       </c>
       <c r="D18" t="n">
-        <v>415.3</v>
+        <v>323.18</v>
       </c>
       <c r="E18" t="n">
-        <v>4.18</v>
+        <v>10.312</v>
       </c>
     </row>
     <row r="19">
@@ -789,93 +789,93 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>415.3</v>
+        <v>105.68</v>
       </c>
       <c r="D19" t="n">
-        <v>477.4</v>
+        <v>139.44</v>
       </c>
       <c r="E19" t="n">
-        <v>1.06</v>
+        <v>20.016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>477.4</v>
+        <v>104.6</v>
       </c>
       <c r="D20" t="n">
-        <v>542.28</v>
+        <v>149.4</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>542.28</v>
+        <v>149.4</v>
       </c>
       <c r="D21" t="n">
-        <v>608.64</v>
+        <v>212.42</v>
       </c>
       <c r="E21" t="n">
-        <v>26.024</v>
+        <v>15.808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>126.26</v>
+        <v>212.42</v>
       </c>
       <c r="D22" t="n">
-        <v>176.76</v>
+        <v>265.98</v>
       </c>
       <c r="E22" t="n">
-        <v>19.224</v>
+        <v>13.072</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40.8</v>
+        <v>185.58</v>
       </c>
       <c r="D23" t="n">
-        <v>115.48</v>
+        <v>235.86</v>
       </c>
       <c r="E23" t="n">
-        <v>23.232</v>
+        <v>14.424</v>
       </c>
     </row>
     <row r="24">
@@ -884,226 +884,226 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>176.76</v>
+        <v>323.18</v>
       </c>
       <c r="D24" t="n">
-        <v>264.66</v>
+        <v>395.58</v>
       </c>
       <c r="E24" t="n">
-        <v>14.544</v>
+        <v>7.192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>115.48</v>
+        <v>139.44</v>
       </c>
       <c r="D25" t="n">
-        <v>162.54</v>
+        <v>175.94</v>
       </c>
       <c r="E25" t="n">
-        <v>20.636</v>
+        <v>17.496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>264.66</v>
+        <v>175.94</v>
       </c>
       <c r="D26" t="n">
-        <v>319.88</v>
+        <v>237.14</v>
       </c>
       <c r="E26" t="n">
-        <v>11.632</v>
+        <v>13.976</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>162.54</v>
+        <v>265.98</v>
       </c>
       <c r="D27" t="n">
-        <v>211.14</v>
+        <v>317.32</v>
       </c>
       <c r="E27" t="n">
-        <v>17.396</v>
+        <v>9.068</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>608.64</v>
+        <v>142.26</v>
       </c>
       <c r="D28" t="n">
-        <v>657.6</v>
+        <v>211.54</v>
       </c>
       <c r="E28" t="n">
-        <v>22.768</v>
+        <v>18.256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>319.88</v>
+        <v>235.86</v>
       </c>
       <c r="D29" t="n">
-        <v>371.14</v>
+        <v>303.16</v>
       </c>
       <c r="E29" t="n">
-        <v>8.616</v>
+        <v>11.304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>106.7</v>
+        <v>395.58</v>
       </c>
       <c r="D30" t="n">
-        <v>165.72</v>
+        <v>470.38</v>
       </c>
       <c r="E30" t="n">
-        <v>20.308</v>
+        <v>3.812</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>196</v>
+        <v>237.14</v>
       </c>
       <c r="D31" t="n">
-        <v>262</v>
+        <v>270.14</v>
       </c>
       <c r="E31" t="n">
-        <v>14.84</v>
+        <v>11.816</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>141.36</v>
+        <v>270.14</v>
       </c>
       <c r="D32" t="n">
-        <v>180.24</v>
+        <v>314.08</v>
       </c>
       <c r="E32" t="n">
-        <v>19.076</v>
+        <v>8.552</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>371.14</v>
+        <v>317.32</v>
       </c>
       <c r="D33" t="n">
-        <v>436.46</v>
+        <v>387.24</v>
       </c>
       <c r="E33" t="n">
-        <v>5.704</v>
+        <v>6.156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>165.72</v>
+        <v>303.16</v>
       </c>
       <c r="D34" t="n">
-        <v>215.1</v>
+        <v>370.64</v>
       </c>
       <c r="E34" t="n">
-        <v>16.5</v>
+        <v>7.656</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>436.46</v>
+        <v>314.08</v>
       </c>
       <c r="D35" t="n">
-        <v>474.8</v>
+        <v>367.84</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>5.296</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>180.24</v>
+        <v>370.64</v>
       </c>
       <c r="D36" t="n">
-        <v>233.46</v>
+        <v>425.44</v>
       </c>
       <c r="E36" t="n">
-        <v>15.884</v>
+        <v>4.296</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>211.14</v>
+        <v>367.84</v>
       </c>
       <c r="D37" t="n">
-        <v>267.86</v>
+        <v>427.14</v>
       </c>
       <c r="E37" t="n">
-        <v>13.364</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>233.46</v>
+        <v>427.14</v>
       </c>
       <c r="D38" t="n">
-        <v>294.38</v>
+        <v>532.45</v>
       </c>
       <c r="E38" t="n">
-        <v>11.932</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>215.1</v>
+        <v>181.9</v>
       </c>
       <c r="D39" t="n">
-        <v>256.7</v>
+        <v>219.26</v>
       </c>
       <c r="E39" t="n">
-        <v>12.98</v>
+        <v>16.104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>256.7</v>
+        <v>219.26</v>
       </c>
       <c r="D40" t="n">
-        <v>314.2</v>
+        <v>271.34</v>
       </c>
       <c r="E40" t="n">
-        <v>9.34</v>
+        <v>12.516</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>314.2</v>
+        <v>532.45</v>
       </c>
       <c r="D41" t="n">
-        <v>366.7</v>
+        <v>585.65</v>
       </c>
       <c r="E41" t="n">
-        <v>6.22</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="42">
@@ -1226,131 +1226,131 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>294.38</v>
+        <v>425.44</v>
       </c>
       <c r="D42" t="n">
-        <v>351.76</v>
+        <v>477.14</v>
       </c>
       <c r="E42" t="n">
-        <v>7.824</v>
+        <v>2.216</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>474.8</v>
+        <v>211.54</v>
       </c>
       <c r="D43" t="n">
-        <v>560.4</v>
+        <v>258.54</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>15.176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>560.4</v>
+        <v>387.24</v>
       </c>
       <c r="D44" t="n">
-        <v>619.64</v>
+        <v>450.28</v>
       </c>
       <c r="E44" t="n">
-        <v>26.736</v>
+        <v>3.452</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>619.64</v>
+        <v>585.65</v>
       </c>
       <c r="D45" t="n">
-        <v>670.22</v>
+        <v>630.51</v>
       </c>
       <c r="E45" t="n">
-        <v>23.788</v>
+        <v>23.504</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>366.7</v>
+        <v>450.28</v>
       </c>
       <c r="D46" t="n">
-        <v>410.76</v>
+        <v>532.52</v>
       </c>
       <c r="E46" t="n">
-        <v>2.944</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>351.76</v>
+        <v>532.52</v>
       </c>
       <c r="D47" t="n">
-        <v>406.62</v>
+        <v>608.86</v>
       </c>
       <c r="E47" t="n">
-        <v>4.968</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>410.76</v>
+        <v>271.34</v>
       </c>
       <c r="D48" t="n">
-        <v>459.22</v>
+        <v>344.92</v>
       </c>
       <c r="E48" t="n">
-        <v>0.208</v>
+        <v>9.268000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1359,226 +1359,264 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>459.22</v>
+        <v>258.54</v>
       </c>
       <c r="D49" t="n">
-        <v>555.3</v>
+        <v>333.04</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>11.796</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>262</v>
+        <v>333.04</v>
       </c>
       <c r="D50" t="n">
-        <v>325.76</v>
+        <v>418.06</v>
       </c>
       <c r="E50" t="n">
-        <v>11.584</v>
+        <v>8.884</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>325.76</v>
+        <v>344.92</v>
       </c>
       <c r="D51" t="n">
-        <v>398.44</v>
+        <v>420.3</v>
       </c>
       <c r="E51" t="n">
-        <v>7.936</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>267.86</v>
+        <v>477.14</v>
       </c>
       <c r="D52" t="n">
-        <v>364.46</v>
+        <v>544.61</v>
       </c>
       <c r="E52" t="n">
-        <v>10.284</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>398.44</v>
+        <v>544.61</v>
       </c>
       <c r="D53" t="n">
-        <v>470.14</v>
+        <v>615.83</v>
       </c>
       <c r="E53" t="n">
-        <v>3.376</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>364.46</v>
+        <v>470.38</v>
       </c>
       <c r="D54" t="n">
-        <v>430.68</v>
+        <v>554.04</v>
       </c>
       <c r="E54" t="n">
-        <v>7.292</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>555.3</v>
+        <v>554.04</v>
       </c>
       <c r="D55" t="n">
-        <v>590.38</v>
+        <v>639.77</v>
       </c>
       <c r="E55" t="n">
-        <v>27.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>470.14</v>
+        <v>418.06</v>
       </c>
       <c r="D56" t="n">
-        <v>532.74</v>
+        <v>484.38</v>
       </c>
       <c r="E56" t="n">
-        <v>1.216</v>
+        <v>4.852</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>532.74</v>
+        <v>484.38</v>
       </c>
       <c r="D57" t="n">
-        <v>621.8099999999999</v>
+        <v>568.4</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>621.8099999999999</v>
+        <v>568.4</v>
       </c>
       <c r="D58" t="n">
-        <v>680.21</v>
+        <v>657.88</v>
       </c>
       <c r="E58" t="n">
-        <v>26.34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>657.6</v>
+        <v>608.86</v>
       </c>
       <c r="D59" t="n">
-        <v>732.98</v>
+        <v>694.46</v>
       </c>
       <c r="E59" t="n">
-        <v>19.36</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>590.38</v>
+        <v>420.3</v>
       </c>
       <c r="D60" t="n">
-        <v>646.9</v>
+        <v>465.48</v>
       </c>
       <c r="E60" t="n">
-        <v>23.16</v>
+        <v>2.932</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>pond24</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>465.48</v>
+      </c>
+      <c r="D61" t="n">
+        <v>534.36</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>534.36</v>
+      </c>
+      <c r="D62" t="n">
+        <v>601.11</v>
+      </c>
+      <c r="E62" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
